--- a/Assets/06.Table/BattleContestGrade.xlsx
+++ b/Assets/06.Table/BattleContestGrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{167B4CC2-B566-4636-822C-273480E10D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6B275-69C8-40FE-A7C3-CC56461DF027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -811,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B11" si="0">B3</f>
+        <f t="shared" ref="B4:B16" si="0">B3</f>
         <v>9058</v>
       </c>
       <c r="C4" s="19">
@@ -916,7 +916,7 @@
         <v>150</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D10" si="1">D3</f>
+        <f t="shared" ref="D4:D16" si="1">D3</f>
         <v>102</v>
       </c>
       <c r="E4">
@@ -1112,7 +1112,7 @@
         <v>1500</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11" si="2">D10</f>
+        <f t="shared" ref="D11:D15" si="2">D10</f>
         <v>102</v>
       </c>
       <c r="E11">
@@ -1125,6 +1125,146 @@
       </c>
       <c r="G11">
         <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C12" s="19">
+        <f>VLOOKUP(A12,Balance!I:J,2,FALSE)</f>
+        <v>1800</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E12">
+        <f>VLOOKUP(A12,Balance!I:L,3,FALSE)/100</f>
+        <v>18.7</v>
+      </c>
+      <c r="F12" t="str">
+        <f>VLOOKUP(A12,Balance!I:L,4,FALSE)</f>
+        <v>검존</v>
+      </c>
+      <c r="G12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C13" s="19">
+        <f>VLOOKUP(A13,Balance!I:J,2,FALSE)</f>
+        <v>2100</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E13">
+        <f>VLOOKUP(A13,Balance!I:L,3,FALSE)/100</f>
+        <v>26.2</v>
+      </c>
+      <c r="F13" t="str">
+        <f>VLOOKUP(A13,Balance!I:L,4,FALSE)</f>
+        <v>검제</v>
+      </c>
+      <c r="G13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C14" s="19">
+        <f>VLOOKUP(A14,Balance!I:J,2,FALSE)</f>
+        <v>2500</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E14">
+        <f>VLOOKUP(A14,Balance!I:L,3,FALSE)/100</f>
+        <v>36.200000000000003</v>
+      </c>
+      <c r="F14" t="str">
+        <f>VLOOKUP(A14,Balance!I:L,4,FALSE)</f>
+        <v>검선</v>
+      </c>
+      <c r="G14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C15" s="19">
+        <f>VLOOKUP(A15,Balance!I:J,2,FALSE)</f>
+        <v>3000</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E15">
+        <f>VLOOKUP(A15,Balance!I:L,3,FALSE)/100</f>
+        <v>61.2</v>
+      </c>
+      <c r="F15" t="str">
+        <f>VLOOKUP(A15,Balance!I:L,4,FALSE)</f>
+        <v>선인</v>
+      </c>
+      <c r="G15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C16" s="19">
+        <f>VLOOKUP(A16,Balance!I:J,2,FALSE)</f>
+        <v>3500</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E16">
+        <f>VLOOKUP(A16,Balance!I:L,3,FALSE)/100</f>
+        <v>86.2</v>
+      </c>
+      <c r="F16" t="str">
+        <f>VLOOKUP(A16,Balance!I:L,4,FALSE)</f>
+        <v>비선</v>
+      </c>
+      <c r="G16">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1138,8 +1278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42A9B4BA-49ED-4B77-9780-496F10280935}">
   <dimension ref="A1:R115"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="R11" sqref="R11"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="R30" sqref="R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1729,14 +1869,14 @@
       </c>
       <c r="P19" s="32">
         <f t="shared" si="6"/>
-        <v>64.171122994652407</v>
+        <v>40.106951871657756</v>
       </c>
       <c r="Q19" s="32">
         <f t="shared" si="4"/>
-        <v>22.459893048128343</v>
+        <v>14.037433155080214</v>
       </c>
       <c r="R19" s="28">
-        <v>400</v>
+        <v>250</v>
       </c>
     </row>
     <row r="20" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1752,7 +1892,7 @@
       </c>
       <c r="K20" s="35">
         <f t="shared" si="5"/>
-        <v>3070</v>
+        <v>2620</v>
       </c>
       <c r="L20" s="33" t="s">
         <v>39</v>
@@ -1771,14 +1911,14 @@
       </c>
       <c r="P20" s="36">
         <f t="shared" si="6"/>
-        <v>104.23452768729642</v>
+        <v>38.167938931297712</v>
       </c>
       <c r="Q20" s="36">
         <f t="shared" si="4"/>
-        <v>27.361563517915311</v>
+        <v>10.019083969465649</v>
       </c>
       <c r="R20" s="27">
-        <v>800</v>
+        <v>250</v>
       </c>
     </row>
     <row r="21" spans="3:18" x14ac:dyDescent="0.3">
@@ -1794,7 +1934,7 @@
       </c>
       <c r="K21" s="31">
         <f t="shared" si="5"/>
-        <v>6270</v>
+        <v>3620</v>
       </c>
       <c r="L21" s="29" t="s">
         <v>40</v>
@@ -1805,7 +1945,7 @@
       </c>
       <c r="N21" s="32">
         <f t="shared" si="1"/>
-        <v>3.8095238095238093</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="O21" s="32">
         <f t="shared" si="2"/>
@@ -1813,14 +1953,14 @@
       </c>
       <c r="P21" s="32">
         <f t="shared" si="6"/>
-        <v>66.985645933014354</v>
+        <v>69.060773480662988</v>
       </c>
       <c r="Q21" s="32">
         <f t="shared" si="4"/>
-        <v>17.58373205741627</v>
+        <v>14.502762430939228</v>
       </c>
       <c r="R21" s="28">
-        <v>1050</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22" spans="3:18" x14ac:dyDescent="0.3">
@@ -1832,37 +1972,37 @@
         <v>13</v>
       </c>
       <c r="J22" s="30">
-        <v>2900</v>
+        <v>3000</v>
       </c>
       <c r="K22" s="31">
         <f t="shared" si="5"/>
-        <v>10470</v>
+        <v>6120</v>
       </c>
       <c r="L22" s="29" t="s">
         <v>41</v>
       </c>
       <c r="M22" s="32">
         <f t="shared" si="0"/>
-        <v>27.61904761904762</v>
+        <v>28.571428571428573</v>
       </c>
       <c r="N22" s="32">
         <f t="shared" si="1"/>
-        <v>3.8095238095238093</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="O22" s="32">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="P22" s="32">
         <f t="shared" si="6"/>
-        <v>63.03724928366762</v>
+        <v>40.849673202614376</v>
       </c>
       <c r="Q22" s="32">
         <f t="shared" si="4"/>
-        <v>16.54727793696275</v>
+        <v>8.5784313725490193</v>
       </c>
       <c r="R22" s="28">
-        <v>1650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="23" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -1874,37 +2014,37 @@
         <v>14</v>
       </c>
       <c r="J23" s="34">
-        <v>3300</v>
+        <v>3500</v>
       </c>
       <c r="K23" s="35">
         <f t="shared" si="5"/>
-        <v>17070</v>
+        <v>8620</v>
       </c>
       <c r="L23" s="33" t="s">
         <v>42</v>
       </c>
       <c r="M23" s="36">
         <f t="shared" si="0"/>
-        <v>31.428571428571427</v>
+        <v>33.333333333333336</v>
       </c>
       <c r="N23" s="36">
         <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
+        <v>4.7619047619047619</v>
       </c>
       <c r="O23" s="36">
         <f t="shared" si="2"/>
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="P23" s="36">
         <f t="shared" si="6"/>
-        <v>108.67018160515525</v>
+        <v>29.002320185614849</v>
       </c>
       <c r="Q23" s="36">
         <f t="shared" si="4"/>
-        <v>16.300527240773288</v>
+        <v>6.0904872389791187</v>
       </c>
       <c r="R23" s="27">
-        <v>2650</v>
+        <v>500</v>
       </c>
     </row>
     <row r="24" spans="3:18" x14ac:dyDescent="0.3">
@@ -1920,7 +2060,7 @@
       </c>
       <c r="K24" s="31">
         <f t="shared" si="5"/>
-        <v>35620</v>
+        <v>11120</v>
       </c>
       <c r="L24" s="29" t="s">
         <v>43</v>
@@ -1939,14 +2079,14 @@
       </c>
       <c r="P24" s="32">
         <f t="shared" si="6"/>
-        <v>59.657495788882649</v>
+        <v>44.964028776978417</v>
       </c>
       <c r="Q24" s="32">
         <f t="shared" si="4"/>
-        <v>12.528074115665357</v>
+        <v>9.442446043165468</v>
       </c>
       <c r="R24" s="28">
-        <v>4250</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="25" spans="3:18" x14ac:dyDescent="0.3">
@@ -1962,7 +2102,7 @@
       </c>
       <c r="K25" s="31">
         <f t="shared" si="5"/>
-        <v>56870</v>
+        <v>16120</v>
       </c>
       <c r="L25" s="29" t="s">
         <v>44</v>
@@ -1981,14 +2121,14 @@
       </c>
       <c r="P25" s="32">
         <f t="shared" si="6"/>
-        <v>52.751890276068224</v>
+        <v>31.017369727047146</v>
       </c>
       <c r="Q25" s="32">
         <f t="shared" si="4"/>
-        <v>11.077896957974326</v>
+        <v>6.513647642679901</v>
       </c>
       <c r="R25" s="28">
-        <v>6000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="26" spans="3:18" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
@@ -2004,7 +2144,7 @@
       </c>
       <c r="K26" s="35">
         <f t="shared" si="5"/>
-        <v>86870</v>
+        <v>21120</v>
       </c>
       <c r="L26" s="33" t="s">
         <v>45</v>
@@ -2023,14 +2163,14 @@
       </c>
       <c r="P26" s="36">
         <f t="shared" si="6"/>
-        <v>103.60308506964429</v>
+        <v>47.348484848484851</v>
       </c>
       <c r="Q26" s="36">
         <f t="shared" si="4"/>
-        <v>10.87832393231265</v>
+        <v>4.9715909090909092</v>
       </c>
       <c r="R26" s="27">
-        <v>9000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="27" spans="3:18" x14ac:dyDescent="0.3">
@@ -2046,7 +2186,7 @@
       </c>
       <c r="K27" s="31">
         <f t="shared" si="5"/>
-        <v>176870</v>
+        <v>31120</v>
       </c>
       <c r="L27" s="29" t="s">
         <v>46</v>
@@ -2065,14 +2205,14 @@
       </c>
       <c r="P27" s="32">
         <f t="shared" si="6"/>
-        <v>59.365635777689832</v>
+        <v>48.200514138817482</v>
       </c>
       <c r="Q27" s="32">
         <f t="shared" si="4"/>
-        <v>6.2333917566574328</v>
+        <v>5.0610539845758353</v>
       </c>
       <c r="R27" s="28">
-        <v>10500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="28" spans="3:18" x14ac:dyDescent="0.3">
@@ -2088,7 +2228,7 @@
       </c>
       <c r="K28" s="31">
         <f t="shared" si="5"/>
-        <v>281870</v>
+        <v>46120</v>
       </c>
       <c r="L28" s="29" t="s">
         <v>47</v>
@@ -2107,14 +2247,14 @@
       </c>
       <c r="P28" s="32">
         <f t="shared" si="6"/>
-        <v>169.75910880902543</v>
+        <v>94.319167389418908</v>
       </c>
       <c r="Q28" s="32">
         <f t="shared" si="4"/>
-        <v>5.94156880831589</v>
+        <v>3.3011708586296615</v>
       </c>
       <c r="R28" s="28">
-        <v>16500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="29" spans="3:18" x14ac:dyDescent="0.3">
@@ -2130,7 +2270,7 @@
       </c>
       <c r="K29" s="31">
         <f t="shared" si="5"/>
-        <v>760370</v>
+        <v>89620</v>
       </c>
       <c r="L29" s="29" t="s">
         <v>49</v>
@@ -2149,14 +2289,14 @@
       </c>
       <c r="P29" s="32">
         <f t="shared" si="6"/>
-        <v>167.28697870773439</v>
+        <v>80.33920999776835</v>
       </c>
       <c r="Q29" s="32">
         <f t="shared" si="4"/>
-        <v>3.513026552862422</v>
+        <v>1.6871234099531354</v>
       </c>
       <c r="R29" s="28">
-        <v>26500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="3:18" x14ac:dyDescent="0.3">
@@ -2172,7 +2312,7 @@
       </c>
       <c r="K30" s="31">
         <f t="shared" si="5"/>
-        <v>2032370</v>
+        <v>161620</v>
       </c>
       <c r="L30" s="29" t="s">
         <v>48</v>

--- a/Assets/06.Table/BattleContestGrade.xlsx
+++ b/Assets/06.Table/BattleContestGrade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A6B275-69C8-40FE-A7C3-CC56461DF027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5C08FF-3C76-4AA3-855B-1D346E6C4577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="BattleContestGrade" sheetId="1" r:id="rId1"/>
@@ -811,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E21" sqref="E21"/>
+      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B16" si="0">B3</f>
+        <f t="shared" ref="B4:B19" si="0">B3</f>
         <v>9058</v>
       </c>
       <c r="C4" s="19">
@@ -916,7 +916,7 @@
         <v>150</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D16" si="1">D3</f>
+        <f t="shared" ref="D4:D18" si="1">D3</f>
         <v>102</v>
       </c>
       <c r="E4">
@@ -1112,7 +1112,7 @@
         <v>1500</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D15" si="2">D10</f>
+        <f t="shared" ref="D11:D19" si="2">D10</f>
         <v>102</v>
       </c>
       <c r="E11">
@@ -1265,6 +1265,90 @@
       </c>
       <c r="G16">
         <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C17" s="19">
+        <f>VLOOKUP(A17,Balance!I:J,2,FALSE)</f>
+        <v>4000</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E17">
+        <f>VLOOKUP(A17,Balance!I:L,3,FALSE)/100</f>
+        <v>111.2</v>
+      </c>
+      <c r="F17" t="str">
+        <f>VLOOKUP(A17,Balance!I:L,4,FALSE)</f>
+        <v>영인</v>
+      </c>
+      <c r="G17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C18" s="19">
+        <f>VLOOKUP(A18,Balance!I:J,2,FALSE)</f>
+        <v>4500</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E18">
+        <f>VLOOKUP(A18,Balance!I:L,3,FALSE)/100</f>
+        <v>161.19999999999999</v>
+      </c>
+      <c r="F18" t="str">
+        <f>VLOOKUP(A18,Balance!I:L,4,FALSE)</f>
+        <v>진인</v>
+      </c>
+      <c r="G18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C19" s="19">
+        <f>VLOOKUP(A19,Balance!I:J,2,FALSE)</f>
+        <v>5000</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E19">
+        <f>VLOOKUP(A19,Balance!I:L,3,FALSE)/100</f>
+        <v>211.2</v>
+      </c>
+      <c r="F19" t="str">
+        <f>VLOOKUP(A19,Balance!I:L,4,FALSE)</f>
+        <v>영선</v>
+      </c>
+      <c r="G19">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/06.Table/BattleContestGrade.xlsx
+++ b/Assets/06.Table/BattleContestGrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD5C08FF-3C76-4AA3-855B-1D346E6C4577}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D382F54-1D32-4A35-BA88-D542F1CBEDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -515,9 +515,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 테마">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -555,7 +555,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -661,7 +661,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -803,7 +803,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -811,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D18" sqref="D18"/>
+      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B19" si="0">B3</f>
+        <f t="shared" ref="B4:B21" si="0">B3</f>
         <v>9058</v>
       </c>
       <c r="C4" s="19">
@@ -916,7 +916,7 @@
         <v>150</v>
       </c>
       <c r="D4">
-        <f t="shared" ref="D4:D18" si="1">D3</f>
+        <f t="shared" ref="D4:D20" si="1">D3</f>
         <v>102</v>
       </c>
       <c r="E4">
@@ -1112,7 +1112,7 @@
         <v>1500</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D19" si="2">D10</f>
+        <f t="shared" ref="D11:D21" si="2">D10</f>
         <v>102</v>
       </c>
       <c r="E11">
@@ -1349,6 +1349,62 @@
       </c>
       <c r="G19">
         <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C20" s="19">
+        <f>VLOOKUP(A20,Balance!I:J,2,FALSE)</f>
+        <v>6000</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="1"/>
+        <v>102</v>
+      </c>
+      <c r="E20">
+        <f>VLOOKUP(A20,Balance!I:L,3,FALSE)/100</f>
+        <v>311.2</v>
+      </c>
+      <c r="F20" t="str">
+        <f>VLOOKUP(A20,Balance!I:L,4,FALSE)</f>
+        <v>비천진인</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C21" s="19">
+        <f>VLOOKUP(A21,Balance!I:J,2,FALSE)</f>
+        <v>7000</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E21">
+        <f>VLOOKUP(A21,Balance!I:L,3,FALSE)/100</f>
+        <v>461.2</v>
+      </c>
+      <c r="F21" t="str">
+        <f>VLOOKUP(A21,Balance!I:L,4,FALSE)</f>
+        <v>태상진인</v>
+      </c>
+      <c r="G21">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1363,7 +1419,7 @@
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Assets/06.Table/BattleContestGrade.xlsx
+++ b/Assets/06.Table/BattleContestGrade.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JB\Desktop\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D382F54-1D32-4A35-BA88-D542F1CBEDD1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{396D498A-E0FE-4103-A3A1-AB59A1032058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
@@ -811,11 +811,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B20" sqref="B20"/>
+      <selection pane="bottomLeft" activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -908,7 +908,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B21" si="0">B3</f>
+        <f t="shared" ref="B4:B23" si="0">B3</f>
         <v>9058</v>
       </c>
       <c r="C4" s="19">
@@ -1112,7 +1112,7 @@
         <v>1500</v>
       </c>
       <c r="D11">
-        <f t="shared" ref="D11:D21" si="2">D10</f>
+        <f t="shared" ref="D11:D23" si="2">D10</f>
         <v>102</v>
       </c>
       <c r="E11">
@@ -1405,6 +1405,62 @@
       </c>
       <c r="G21">
         <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C22" s="19">
+        <f>VLOOKUP(A22,Balance!I:J,2,FALSE)</f>
+        <v>10000</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E22">
+        <f>VLOOKUP(A22,Balance!I:L,3,FALSE)/100</f>
+        <v>896.2</v>
+      </c>
+      <c r="F22" t="str">
+        <f>VLOOKUP(A22,Balance!I:L,4,FALSE)</f>
+        <v>차선</v>
+      </c>
+      <c r="G22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>9058</v>
+      </c>
+      <c r="C23" s="19">
+        <f>VLOOKUP(A23,Balance!I:J,2,FALSE)</f>
+        <v>15000</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="E23">
+        <f>VLOOKUP(A23,Balance!I:L,3,FALSE)/100</f>
+        <v>1616.2</v>
+      </c>
+      <c r="F23" t="str">
+        <f>VLOOKUP(A23,Balance!I:L,4,FALSE)</f>
+        <v>상선</v>
+      </c>
+      <c r="G23">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1419,7 +1475,7 @@
   <dimension ref="A1:R115"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
